--- a/factures/Facture_OpcaDefi_Forfait_florian_dec2016.xlsx
+++ b/factures/Facture_OpcaDefi_Forfait_florian_dec2016.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>Florian CHAUMEIL</t>
   </si>
@@ -77,23 +77,110 @@
     <t>-       Maintenance de l'automate de synchronisation</t>
   </si>
   <si>
+    <t>Total HT</t>
+  </si>
+  <si>
+    <t>TVA</t>
+  </si>
+  <si>
+    <t>Total TTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signature du client (précédée de la mention « Bon pour accord ») </t>
+  </si>
+  <si>
+    <t>5-7 ave du Général De Gaulle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75019 Paris   -    France </t>
+  </si>
+  <si>
+    <t>livré le</t>
+  </si>
+  <si>
+    <t>Facture n° 1</t>
+  </si>
+  <si>
+    <t>Date de Facture</t>
+  </si>
+  <si>
+    <t>à l'attention de</t>
+  </si>
+  <si>
+    <t>Contact OPCADEFI</t>
+  </si>
+  <si>
+    <t>i.debuire@opcadefi.fr</t>
+  </si>
+  <si>
+    <t>email:</t>
+  </si>
+  <si>
+    <t>tel:</t>
+  </si>
+  <si>
+    <t>01 58 64 18 66</t>
+  </si>
+  <si>
+    <t>Début de préstation</t>
+  </si>
+  <si>
+    <t>Fin de préstation</t>
+  </si>
+  <si>
+    <t>+33 6 7636 3528</t>
+  </si>
+  <si>
+    <t>florian.chaumeil@yahoo.fr</t>
+  </si>
+  <si>
+    <t>Description de la prestation</t>
+  </si>
+  <si>
+    <t>TVA non applicable, art. 293 B du CGI</t>
+  </si>
+  <si>
+    <t>Contact Pestataire</t>
+  </si>
+  <si>
+    <t>Montant facturé</t>
+  </si>
+  <si>
+    <t>est ce utile/nécéssaire sur une facture?</t>
+  </si>
+  <si>
+    <t>Dispensé d’immatriculation au registre du commerce et des sociétés (RCS) et au répertoire des métiers (RM)</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>cotis</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>Vous ne faites pas de différence entre le Hors Taxe (HT) et le Toutes Taxes Comprises (TTC). Vous ne collectez pas la TVA pour l'Etat, votre prix de vente ne tient donc pas compte de la TVA. En revanche, lors de vos achats, vous payez la TVA à votre fournisseur (qui n'est pas auto-entrepreneur) mais vous ne pouvez pas la récupérer auprès de l'Etat. </t>
+  </si>
+  <si>
+    <t>Tests des chaines complètes de saisies suite à</t>
+  </si>
+  <si>
+    <t>la mise en recette des API v2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-       </t>
+    </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Tests des chaines complètes de saisies</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
+      <t>Demande de prise plan </t>
     </r>
   </si>
   <si>
@@ -102,7 +189,53 @@
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Demande multi établissement </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Demande multi dispositif </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -111,12 +244,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Demande de prise plan </t>
+      <t>Saisie de contrat pro </t>
     </r>
   </si>
   <si>
@@ -125,7 +258,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -134,169 +267,13 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Demande multi établissement </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Demande multi dispositif </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Saisie de contrat pro </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
       <t>Visualisation des comptes </t>
     </r>
-  </si>
-  <si>
-    <t>Total HT</t>
-  </si>
-  <si>
-    <t>TVA</t>
-  </si>
-  <si>
-    <t>Total TTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signature du client (précédée de la mention « Bon pour accord ») </t>
-  </si>
-  <si>
-    <t>5-7 ave du Général De Gaulle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75019 Paris   -    France </t>
-  </si>
-  <si>
-    <t>livré le</t>
-  </si>
-  <si>
-    <t>Facture n° 1</t>
-  </si>
-  <si>
-    <t>Date de Facture</t>
-  </si>
-  <si>
-    <t>à l'attention de</t>
-  </si>
-  <si>
-    <t>Contact OPCADEFI</t>
-  </si>
-  <si>
-    <t>i.debuire@opcadefi.fr</t>
-  </si>
-  <si>
-    <t>email:</t>
-  </si>
-  <si>
-    <t>tel:</t>
-  </si>
-  <si>
-    <t>01 58 64 18 66</t>
-  </si>
-  <si>
-    <t>Début de préstation</t>
-  </si>
-  <si>
-    <t>Fin de préstation</t>
-  </si>
-  <si>
-    <t>+33 6 7636 3528</t>
-  </si>
-  <si>
-    <t>florian.chaumeil@yahoo.fr</t>
-  </si>
-  <si>
-    <t>Description de la prestation</t>
-  </si>
-  <si>
-    <t>TVA non applicable, art. 293 B du CGI</t>
-  </si>
-  <si>
-    <t>Contact Pestataire</t>
-  </si>
-  <si>
-    <t>Montant facturé</t>
-  </si>
-  <si>
-    <t>est ce utile/nécéssaire sur une facture?</t>
-  </si>
-  <si>
-    <t>Dispensé d’immatriculation au registre du commerce et des sociétés (RCS) et au répertoire des métiers (RM)</t>
-  </si>
-  <si>
-    <t>ca</t>
-  </si>
-  <si>
-    <t>cotis</t>
-  </si>
-  <si>
-    <t>net</t>
-  </si>
-  <si>
-    <t>Vous ne faites pas de différence entre le Hors Taxe (HT) et le Toutes Taxes Comprises (TTC). Vous ne collectez pas la TVA pour l'Etat, votre prix de vente ne tient donc pas compte de la TVA. En revanche, lors de vos achats, vous payez la TVA à votre fournisseur (qui n'est pas auto-entrepreneur) mais vous ne pouvez pas la récupérer auprès de l'Etat. </t>
   </si>
 </sst>
 </file>
@@ -308,7 +285,7 @@
     <numFmt numFmtId="164" formatCode="d\.m\.yyyy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-407]"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,59 +375,47 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -645,9 +610,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -682,7 +647,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -690,14 +655,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -718,7 +682,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -728,13 +692,15 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1054,7 +1020,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,10 +1039,10 @@
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="G1" s="45" t="s">
-        <v>30</v>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="G1" s="44" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1096,7 +1062,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B6" s="5">
         <f>DATE(2017,1,2)+0</f>
@@ -1104,7 +1070,7 @@
       </c>
       <c r="C6" s="4"/>
       <c r="E6" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -1132,7 +1098,7 @@
       </c>
       <c r="C8" s="5"/>
       <c r="E8" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -1151,7 +1117,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="J9" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K9" s="2">
         <v>3120</v>
@@ -1159,7 +1125,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5">
         <f>DATE(2016,12,19)+0</f>
@@ -1167,25 +1133,25 @@
       </c>
       <c r="C10" s="4"/>
       <c r="J10" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K10" s="2">
         <v>720</v>
       </c>
-      <c r="L10" s="56">
+      <c r="L10" s="55">
         <f>K10/K9</f>
         <v>0.23076923076923078</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B11" s="5">
         <v>42399</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="46" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="4"/>
@@ -1195,7 +1161,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J12" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K12" s="2">
         <f>K9-K10</f>
@@ -1204,12 +1170,12 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="E13" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1228,243 +1194,251 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>41</v>
       </c>
       <c r="C15" s="3"/>
       <c r="E15" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>34</v>
       </c>
       <c r="C16" s="3"/>
       <c r="E16" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-    </row>
-    <row r="24" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+    </row>
+    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="43">
+        <v>42727</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="28">
+        <v>1560</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="44">
-        <v>42727</v>
-      </c>
+      <c r="D25" s="41"/>
       <c r="E25" s="25"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="28">
-        <v>1560</v>
-      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>13</v>
+      <c r="A26" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="42"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="25"/>
       <c r="F26" s="24"/>
       <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>14</v>
+      <c r="A27" s="22" t="s">
+        <v>15</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
-      <c r="D27" s="42"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="25"/>
       <c r="F27" s="24"/>
       <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
+      <c r="A28" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="42"/>
-      <c r="E28" s="25"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="24"/>
       <c r="G28" s="25"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>17</v>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="43">
+        <v>42734</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="29">
+        <f>1560</f>
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="57" t="s">
+        <v>47</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
-      <c r="D30" s="44">
-        <v>42734</v>
-      </c>
+      <c r="D30" s="43"/>
       <c r="E30" s="25"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="29">
-        <f>1560</f>
-        <v>1560</v>
-      </c>
+      <c r="F30" s="24"/>
+      <c r="G30" s="28"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
-      <c r="D31" s="42"/>
+      <c r="D31" s="41"/>
       <c r="E31" s="25"/>
       <c r="F31" s="24"/>
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
-      <c r="D32" s="42"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="25"/>
       <c r="F32" s="24"/>
       <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
-      <c r="D33" s="42"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="25"/>
       <c r="F33" s="24"/>
       <c r="G33" s="25"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
-      <c r="D34" s="42"/>
+      <c r="D34" s="41"/>
       <c r="E34" s="25"/>
       <c r="F34" s="24"/>
       <c r="G34" s="25"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
-        <v>22</v>
+      <c r="A35" s="56" t="s">
+        <v>52</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
-      <c r="D35" s="43"/>
+      <c r="D35" s="42"/>
       <c r="E35" s="27"/>
       <c r="F35" s="26"/>
       <c r="G35" s="27"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F36" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="31">
-        <f>SUM(G25:G35)</f>
+        <v>17</v>
+      </c>
+      <c r="G36" s="30">
+        <f>SUM(G24:G35)</f>
         <v>3120</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G37" s="49" t="s">
-        <v>43</v>
+      <c r="G37" s="48" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="51">
+      <c r="F38" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E39" s="12"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="55"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="54"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F40" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="54">
+      <c r="F40" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="53">
         <f>G36+G38</f>
         <v>3120</v>
       </c>
-      <c r="H40" s="55"/>
+      <c r="H40" s="54"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H41" s="55"/>
+      <c r="H41" s="54"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="32" t="s">
-        <v>26</v>
+      <c r="G42" s="31" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1475,7 +1449,7 @@
     </row>
     <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D44" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -1487,10 +1461,10 @@
       <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
@@ -1515,7 +1489,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -1535,7 +1509,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>

--- a/factures/Facture_OpcaDefi_Forfait_florian_dec2016.xlsx
+++ b/factures/Facture_OpcaDefi_Forfait_florian_dec2016.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>Florian CHAUMEIL</t>
   </si>
@@ -35,9 +35,6 @@
     <t>75019 Paris</t>
   </si>
   <si>
-    <t>Référence du devis</t>
-  </si>
-  <si>
     <t>Numéro de client</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>Total TTC</t>
   </si>
   <si>
-    <t xml:space="preserve">Signature du client (précédée de la mention « Bon pour accord ») </t>
-  </si>
-  <si>
     <t>5-7 ave du Général De Gaulle</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
     <t>livré le</t>
   </si>
   <si>
-    <t>Facture n° 1</t>
-  </si>
-  <si>
     <t>Date de Facture</t>
   </si>
   <si>
@@ -146,22 +137,7 @@
     <t>Montant facturé</t>
   </si>
   <si>
-    <t>est ce utile/nécéssaire sur une facture?</t>
-  </si>
-  <si>
     <t>Dispensé d’immatriculation au registre du commerce et des sociétés (RCS) et au répertoire des métiers (RM)</t>
-  </si>
-  <si>
-    <t>ca</t>
-  </si>
-  <si>
-    <t>cotis</t>
-  </si>
-  <si>
-    <t>net</t>
-  </si>
-  <si>
-    <t>Vous ne faites pas de différence entre le Hors Taxe (HT) et le Toutes Taxes Comprises (TTC). Vous ne collectez pas la TVA pour l'Etat, votre prix de vente ne tient donc pas compte de la TVA. En revanche, lors de vos achats, vous payez la TVA à votre fournisseur (qui n'est pas auto-entrepreneur) mais vous ne pouvez pas la récupérer auprès de l'Etat. </t>
   </si>
   <si>
     <t>Tests des chaines complètes de saisies suite à</t>
@@ -275,6 +251,21 @@
       <t>Visualisation des comptes </t>
     </r>
   </si>
+  <si>
+    <t>BC/DSPC/2015/12/13/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facture </t>
+  </si>
+  <si>
+    <t>Référence</t>
+  </si>
+  <si>
+    <t>référence bon de comande</t>
+  </si>
+  <si>
+    <t>opcadefi122016/f1</t>
+  </si>
 </sst>
 </file>
 
@@ -285,7 +276,7 @@
     <numFmt numFmtId="164" formatCode="d\.m\.yyyy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-407]"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,22 +372,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -416,6 +395,24 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -610,9 +607,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -628,7 +625,6 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -656,12 +652,9 @@
     <xf numFmtId="44" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -682,7 +675,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -692,15 +684,26 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,34 +1023,43 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="2"/>
     <col min="6" max="6" width="9.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="12" style="2" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="G1" s="44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="56"/>
+      <c r="G2" s="58" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1057,465 +1069,412 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5">
         <f>DATE(2017,1,2)+0</f>
         <v>42737</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="E6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="E7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="E7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C8" s="5"/>
-      <c r="E8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="E8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="E9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="J9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="2">
-        <v>3120</v>
-      </c>
+      <c r="E9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5">
         <f>DATE(2016,12,19)+0</f>
         <v>42723</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="J10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="2">
-        <v>720</v>
-      </c>
-      <c r="L10" s="55">
-        <f>K10/K9</f>
-        <v>0.23076923076923078</v>
-      </c>
+      <c r="L10" s="52"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5">
         <v>42399</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="E11" s="46" t="s">
-        <v>4</v>
+      <c r="E11" s="43" t="s">
+        <v>3</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="2">
-        <f>K9-K10</f>
-        <v>2400</v>
-      </c>
-    </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>38</v>
+      <c r="A13" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="E13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="E13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="E14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="E14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>35</v>
+      <c r="A15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>32</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="E15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="E15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="E16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="E16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" t="s">
-        <v>45</v>
-      </c>
+      <c r="G16" s="9"/>
+      <c r="H16"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
+      <c r="A20" s="12"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="55">
+        <v>42727</v>
+      </c>
+      <c r="E24" s="24"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="27">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="43">
-        <v>42727</v>
-      </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="28">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="43">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="55">
         <v>42734</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="29">
+      <c r="E29" s="24"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="28">
         <f>1560</f>
         <v>1560</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="28"/>
+      <c r="A30" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="27"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
+      <c r="A31" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25"/>
+      <c r="A32" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="25"/>
+      <c r="A33" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
+      <c r="A34" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="27"/>
+      <c r="A35" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F36" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="30">
+      <c r="F36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="29">
         <f>SUM(G24:G35)</f>
         <v>3120</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G37" s="48" t="s">
-        <v>37</v>
+      <c r="G37" s="45" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F38" s="49" t="s">
+      <c r="F38" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="11"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="51"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F40" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="12"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="54"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F40" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="53">
+      <c r="G40" s="50">
         <f>G36+G38</f>
         <v>3120</v>
       </c>
-      <c r="H40" s="54"/>
+      <c r="H40" s="51"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H41" s="54"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="31" t="s">
+      <c r="H41" s="51"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D44" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
+      <c r="A50" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
+      <c r="A51" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.625" right="0.56372549019607843" top="0.48958333333333331" bottom="0.28125" header="0.3" footer="0.3"/>
